--- a/dm_promotion_service/data/users_engagement.xlsx
+++ b/dm_promotion_service/data/users_engagement.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,57 +434,57 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>user_id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>username</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>level</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>last_message_date</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>last_response</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>response_status</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>level_3_ai_response</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>subscription_checked</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>level_4_reminder_sent</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>decision</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>notes</t>
         </is>

--- a/dm_promotion_service/data/users_engagement.xlsx
+++ b/dm_promotion_service/data/users_engagement.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,57 +422,57 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>user_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>username</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>level</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>last_message_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>last_response</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>response_status</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>level_3_ai_response</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>subscription_checked</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>level_4_reminder_sent</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>decision</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
@@ -492,44 +480,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5512988292</v>
+        <v>5361304479</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>z_ubin</t>
+          <t>user_5361304479</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-02-11T21:30:45.164669+00:00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Yes Sure</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+          <t>2026-02-12T10:07:01.990288+00:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
+        <is>
+          <t>Added during extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1065358214</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>user_1065358214</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2026-02-12T10:07:03.251168+00:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Added during extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6941464356</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>user_6941464356</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2026-02-12T10:07:04.515752+00:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Added during extraction</t>
         </is>

--- a/dm_promotion_service/data/users_engagement.xlsx
+++ b/dm_promotion_service/data/users_engagement.xlsx
@@ -623,15 +623,23 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-02-12T10:27:08.760567+00:00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+          <t>2026-02-12T10:37:52.409468+00:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>I'm looking for intern</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="b">
         <v>0</v>
@@ -656,23 +664,35 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-02-12T10:27:10.078943+00:00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+          <t>2026-02-12T10:38:30.743047+00:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ys bro</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>Added during extraction</t>

--- a/dm_promotion_service/data/users_engagement.xlsx
+++ b/dm_promotion_service/data/users_engagement.xlsx
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-02-12T10:37:52.409468+00:00</t>
+          <t>2026-02-12T11:43:30.716466+00:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>I'm looking for intern</t>
+          <t>Ohkkkkk Omg thanks bro 😭😭 It means alot Btw do u know any software for cheating in oa? How? Tell tell Hackerank pe bhi? Session of what? Omg I'm confused Is it free or paid? How much He who???? Isn't that ai based? Ohhhh But what if I give it to my frnd? ?? Ohh u are talking about remote access thing?? For lifetime? Oh Ok</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -640,7 +640,11 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Dude, chill, it's not for cheating, session means proctoring, and yeah, it's paid, don't share with friends btw 😅</t>
+        </is>
+      </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>

--- a/dm_promotion_service/data/users_engagement.xlsx
+++ b/dm_promotion_service/data/users_engagement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,6 +736,39 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1417827147</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>user_1417827147</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>unreachable</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Added during extraction</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
